--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>86.75525012337255</v>
+        <v>22.98486789991533</v>
       </c>
       <c r="R2">
-        <v>780.797251110353</v>
+        <v>206.863811099238</v>
       </c>
       <c r="S2">
-        <v>0.07835459390145806</v>
+        <v>0.02362500572494143</v>
       </c>
       <c r="T2">
-        <v>0.07835459390145808</v>
+        <v>0.02362500572494143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
-        <v>18.35786783815255</v>
+        <v>4.864985974971777</v>
       </c>
       <c r="R3">
-        <v>165.220810543373</v>
+        <v>43.784873774746</v>
       </c>
       <c r="S3">
-        <v>0.01658024473803642</v>
+        <v>0.005000477793082786</v>
       </c>
       <c r="T3">
-        <v>0.01658024473803642</v>
+        <v>0.005000477793082786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>2.817687022565333</v>
+        <v>0.8948512204066665</v>
       </c>
       <c r="R4">
-        <v>25.359183203088</v>
+        <v>8.053660983659999</v>
       </c>
       <c r="S4">
-        <v>0.002544845667329079</v>
+        <v>0.0009197731871739927</v>
       </c>
       <c r="T4">
-        <v>0.002544845667329079</v>
+        <v>0.0009197731871739926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>2.767431457514</v>
+        <v>0.7482460885073333</v>
       </c>
       <c r="R5">
-        <v>24.906883117626</v>
+        <v>6.734214796566</v>
       </c>
       <c r="S5">
-        <v>0.002499456432841417</v>
+        <v>0.0007690850433260875</v>
       </c>
       <c r="T5">
-        <v>0.002499456432841417</v>
+        <v>0.0007690850433260874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N6">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q6">
-        <v>481.9424642127046</v>
+        <v>481.816963315874</v>
       </c>
       <c r="R6">
-        <v>4337.482177914342</v>
+        <v>4336.352669842866</v>
       </c>
       <c r="S6">
-        <v>0.4352751679414612</v>
+        <v>0.4952357597301373</v>
       </c>
       <c r="T6">
-        <v>0.4352751679414613</v>
+        <v>0.4952357597301374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q7">
         <v>101.9815636636247</v>
@@ -883,10 +883,10 @@
         <v>917.8340729726219</v>
       </c>
       <c r="S7">
-        <v>0.09210651799096407</v>
+        <v>0.1048217912707902</v>
       </c>
       <c r="T7">
-        <v>0.09210651799096409</v>
+        <v>0.1048217912707902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N8">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q8">
-        <v>15.652805162848</v>
+        <v>18.75818906218</v>
       </c>
       <c r="R8">
-        <v>140.875246465632</v>
+        <v>168.82370155962</v>
       </c>
       <c r="S8">
-        <v>0.01413711781372849</v>
+        <v>0.01928061217985806</v>
       </c>
       <c r="T8">
-        <v>0.01413711781372849</v>
+        <v>0.01928061217985806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N9">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O9">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P9">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q9">
-        <v>15.373625622396</v>
+        <v>15.685000224818</v>
       </c>
       <c r="R9">
-        <v>138.362630601564</v>
+        <v>141.165002023362</v>
       </c>
       <c r="S9">
-        <v>0.01388497169592462</v>
+        <v>0.01612183379606884</v>
       </c>
       <c r="T9">
-        <v>0.01388497169592462</v>
+        <v>0.01612183379606884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N10">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q10">
-        <v>280.4616362777364</v>
+        <v>211.4356754414927</v>
       </c>
       <c r="R10">
-        <v>2524.154726499627</v>
+        <v>1902.921078973434</v>
       </c>
       <c r="S10">
-        <v>0.2533040661427373</v>
+        <v>0.2173242441293528</v>
       </c>
       <c r="T10">
-        <v>0.2533040661427373</v>
+        <v>0.2173242441293528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q11">
-        <v>59.34715933775634</v>
+        <v>44.75255633883089</v>
       </c>
       <c r="R11">
-        <v>534.1244340398071</v>
+        <v>402.7730070494781</v>
       </c>
       <c r="S11">
-        <v>0.0536004744669884</v>
+        <v>0.04599893305084161</v>
       </c>
       <c r="T11">
-        <v>0.0536004744669884</v>
+        <v>0.04599893305084161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N12">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q12">
-        <v>9.108994691888</v>
+        <v>8.231653670153333</v>
       </c>
       <c r="R12">
-        <v>81.980952226992</v>
+        <v>74.08488303138</v>
       </c>
       <c r="S12">
-        <v>0.008226955474376952</v>
+        <v>0.008460908539040331</v>
       </c>
       <c r="T12">
-        <v>0.00822695547437695</v>
+        <v>0.008460908539040329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N13">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O13">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P13">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q13">
-        <v>8.946528927726</v>
+        <v>6.883046611748668</v>
       </c>
       <c r="R13">
-        <v>80.51876034953401</v>
+        <v>61.94741950573801</v>
       </c>
       <c r="S13">
-        <v>0.008080221542358997</v>
+        <v>0.007074742231091961</v>
       </c>
       <c r="T13">
-        <v>0.008080221542358997</v>
+        <v>0.00707474223109196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N14">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q14">
-        <v>18.57415341053044</v>
+        <v>41.98010831152201</v>
       </c>
       <c r="R14">
-        <v>167.167380694774</v>
+        <v>377.820974803698</v>
       </c>
       <c r="S14">
-        <v>0.01677558701606933</v>
+        <v>0.04314927122974772</v>
       </c>
       <c r="T14">
-        <v>0.01677558701606933</v>
+        <v>0.04314927122974772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q15">
-        <v>3.930388685770444</v>
+        <v>8.885525862174001</v>
       </c>
       <c r="R15">
-        <v>35.373498171934</v>
+        <v>79.96973275956601</v>
       </c>
       <c r="S15">
-        <v>0.003549802564230758</v>
+        <v>0.009132991334866412</v>
       </c>
       <c r="T15">
-        <v>0.003549802564230758</v>
+        <v>0.009132991334866412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N16">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q16">
-        <v>0.6032620613226667</v>
+        <v>1.63437750954</v>
       </c>
       <c r="R16">
-        <v>5.429358551904</v>
+        <v>14.70939758586</v>
       </c>
       <c r="S16">
-        <v>0.0005448471852006058</v>
+        <v>0.001679895581202807</v>
       </c>
       <c r="T16">
-        <v>0.0005448471852006057</v>
+        <v>0.001679895581202807</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N17">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O17">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P17">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q17">
-        <v>0.5925024292119999</v>
+        <v>1.366614416754</v>
       </c>
       <c r="R17">
-        <v>5.332521862907999</v>
+        <v>12.299529750786</v>
       </c>
       <c r="S17">
-        <v>0.0005351294262942402</v>
+        <v>0.001404675178477736</v>
       </c>
       <c r="T17">
-        <v>0.0005351294262942401</v>
+        <v>0.001404675178477735</v>
       </c>
     </row>
   </sheetData>
